--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:26:28+00:00</t>
+    <t>2024-05-21T07:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T07:48:00+00:00</t>
+    <t>2024-05-21T11:15:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:15:54+00:00</t>
+    <t>2024-05-22T12:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ema.europa.eu/fhir/vs/domain</t>
+    <t>https://www.ages.at/fhir/domain</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,10 +87,13 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>100000000012</t>
+  </si>
+  <si>
+    <t>100000000014</t>
   </si>
   <si>
     <t/>
@@ -354,7 +357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -368,26 +371,36 @@
       <c r="A1" t="s" s="1">
         <v>24</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
